--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail3 Features.xlsx
@@ -6024,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6035,29 +6035,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6078,115 +6076,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6203,72 +6191,66 @@
         <v>2.960827423852079e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.530068377501994</v>
+        <v>2.244428956572105e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>15.5751241638679</v>
+        <v>4.874880140782973e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.244428956572105e-07</v>
+        <v>-0.1123882773542405</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.874880140782973e-07</v>
+        <v>0.3901597733627836</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1123882773542405</v>
+        <v>0.16446881003924</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3901597733627836</v>
+        <v>1.925992388332854</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.16446881003924</v>
+        <v>2.98291709448519</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.948418932562918</v>
+        <v>7.221018282079918</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.98291709448519</v>
+        <v>3.650572059824512e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>7.221018282079918</v>
+        <v>108378307431.1301</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.650572059824512e-19</v>
+        <v>1.11465523720792e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>108378307431.1301</v>
+        <v>4287.909928716602</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.11465523720792e-09</v>
+        <v>5.818821228249444e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>4287.909928716602</v>
+        <v>9.592587171566086</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>5.818821228249444e-05</v>
+        <v>1.270958241623839</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.592587171566086</v>
+        <v>0.005354347128095525</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.270958241623839</v>
+        <v>6.207561418075622</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.005354347128095525</v>
+        <v>0.9641468118251457</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>6.207561418075622</v>
+        <v>0.8934450373238002</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9641468118251457</v>
+        <v>414</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.8934450373238002</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>414</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>8.960675383786411</v>
       </c>
     </row>
@@ -6283,72 +6265,66 @@
         <v>2.103760020235767e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.746097480818606</v>
+        <v>1.616115662509899e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>12.36172317519757</v>
+        <v>4.847099458617877e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.616115662509899e-07</v>
+        <v>-0.1088657518467183</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.847099458617877e-07</v>
+        <v>0.4055797181337108</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1088657518467183</v>
+        <v>0.1759276660613065</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.4055797181337108</v>
+        <v>1.925936816175968</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1759276660613065</v>
+        <v>4.051384417730644</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.951569867637533</v>
+        <v>6.202364841186606</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>4.051384417730644</v>
+        <v>3.129510267984281e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>6.202364841186606</v>
+        <v>125742523197.3408</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.129510267984281e-19</v>
+        <v>9.611917027547664e-10</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>125742523197.3408</v>
+        <v>4948.125685620543</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.611917027547664e-10</v>
+        <v>5.635293613929216e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>4948.125685620543</v>
+        <v>8.064865610038041</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>5.635293613929216e-05</v>
+        <v>1.448146714564874</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.064865610038041</v>
+        <v>0.003665310901844453</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.448146714564874</v>
+        <v>6.278141612342648</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.003665310901844453</v>
+        <v>0.9644566722800797</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.278141612342648</v>
+        <v>0.8063034369800863</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9644566722800797</v>
+        <v>452</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.8063034369800863</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>452</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>8.432359919274111</v>
       </c>
     </row>
@@ -6363,72 +6339,66 @@
         <v>1.558083792985098e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.344496898927837</v>
+        <v>1.156421528995207e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>6.813563279616506</v>
+        <v>4.828206056571561e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.156421528995207e-07</v>
+        <v>-0.09843511944829735</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.828206056571561e-07</v>
+        <v>0.406476551351817</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.09843511944829735</v>
+        <v>0.174503531370005</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.406476551351817</v>
+        <v>1.926432382074961</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.174503531370005</v>
+        <v>3.903123576902995</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.951613036782232</v>
+        <v>5.896577575713698</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.903123576902995</v>
+        <v>3.462509439338926e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.896577575713698</v>
+        <v>111342040013.3967</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.462509439338926e-19</v>
+        <v>1.083623116629892e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>111342040013.3967</v>
+        <v>4292.490220987446</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.083623116629892e-09</v>
+        <v>4.535413842421058e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>4292.490220987446</v>
+        <v>8.820560120867293</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>4.535413842421058e-05</v>
+        <v>1.265773331786885</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.820560120867293</v>
+        <v>0.003528655415201283</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.265773331786885</v>
+        <v>6.602738179932478</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.003528655415201283</v>
+        <v>0.9641230734737298</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>6.602738179932478</v>
+        <v>0.8098938020577473</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9641230734737298</v>
+        <v>413</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.8098938020577473</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>413</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>9.539147638202023</v>
       </c>
     </row>
@@ -6443,72 +6413,66 @@
         <v>1.256226828072446e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.2157767247432879</v>
+        <v>8.201696874288257e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.908401099134053</v>
+        <v>4.815793365710911e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.201696874288257e-08</v>
+        <v>-0.07817135690742003</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.815793365710911e-07</v>
+        <v>0.377247022122566</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.07817135690742003</v>
+        <v>0.1480894895852502</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.377247022122566</v>
+        <v>1.926315266731818</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1480894895852502</v>
+        <v>3.892685457279698</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.953580500537508</v>
+        <v>5.859895416153414</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.892685457279698</v>
+        <v>3.849251776595437e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.859895416153414</v>
+        <v>94050084717.19626</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.849251776595437e-19</v>
+        <v>1.274740662775342e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>94050084717.19626</v>
+        <v>3404.824262685395</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.274740662775342e-09</v>
+        <v>4.921187722755474e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3404.824262685395</v>
+        <v>10.68471051252333</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>4.921187722755474e-05</v>
+        <v>1.169977420040897</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.68471051252333</v>
+        <v>0.005618177446221598</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.169977420040897</v>
+        <v>6.591639683570904</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.005618177446221598</v>
+        <v>0.9627873399817024</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>6.591639683570904</v>
+        <v>0.7807848477735617</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9627873399817024</v>
+        <v>372</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.7807848477735617</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>372</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>10.19736609217743</v>
       </c>
     </row>
@@ -6523,72 +6487,66 @@
         <v>1.124364847848995e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-1.075327990661272</v>
+        <v>5.745186727478265e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.3208573104039076</v>
+        <v>4.808104320792722e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.745186727478265e-08</v>
+        <v>-0.05158352337094019</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.808104320792722e-07</v>
+        <v>0.3197552576991132</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.05158352337094019</v>
+        <v>0.1046801405063257</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3197552576991132</v>
+        <v>1.927075411470928</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1046801405063257</v>
+        <v>3.349434999492408</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.955406220684965</v>
+        <v>5.66442184312328</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.349434999492408</v>
+        <v>5.005083175914311e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.66442184312328</v>
+        <v>73548506050.22166</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.005083175914311e-19</v>
+        <v>1.6327199163083e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>73548506050.22166</v>
+        <v>2707.4410555164</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.6327199163083e-09</v>
+        <v>6.686733947919253e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>2707.4410555164</v>
+        <v>10.85099599137271</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>6.686733947919253e-05</v>
+        <v>1.220938994889168</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.85099599137271</v>
+        <v>0.007873235642834811</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.220938994889168</v>
+        <v>6.242007916617076</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007873235642834811</v>
+        <v>0.9644006718557323</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>6.242007916617076</v>
+        <v>0.7952259277400959</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9644006718557323</v>
+        <v>333</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.7952259277400959</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>333</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>9.426734753261105</v>
       </c>
     </row>
@@ -6603,72 +6561,66 @@
         <v>1.085066948442757e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.245995211006162</v>
+        <v>3.95513286784384e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.231336595632555</v>
+        <v>4.803856461410981e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.95513286784384e-08</v>
+        <v>-0.0265127840537268</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.803856461410981e-07</v>
+        <v>0.2570999618190489</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0265127840537268</v>
+        <v>0.06667618154935477</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2570999618190489</v>
+        <v>1.928456689940079</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.06667618154935477</v>
+        <v>3.233324198433669</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.956580145826357</v>
+        <v>5.636588008996386</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.233324198433669</v>
+        <v>5.054636067548019e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.636588008996386</v>
+        <v>73229188638.0139</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.054636067548019e-19</v>
+        <v>1.640384278869948e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>73229188638.0139</v>
+        <v>2710.555702378736</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.640384278869948e-09</v>
+        <v>5.883577071656147e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>2710.555702378736</v>
+        <v>11.15129095400018</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>5.883577071656147e-05</v>
+        <v>1.159200483088558</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.15129095400018</v>
+        <v>0.007316303983263576</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.159200483088558</v>
+        <v>6.341656532702118</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.007316303983263576</v>
+        <v>0.9644091924803559</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>6.341656532702118</v>
+        <v>0.8826186665617674</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9644091924803559</v>
+        <v>340</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.8826186665617674</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>340</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>9.59036161918347</v>
       </c>
     </row>
@@ -6683,72 +6635,66 @@
         <v>1.080538257047586e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-1.222345225040168</v>
+        <v>3.588623428230336e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.1944284387992194</v>
+        <v>4.802092475055182e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.588623428230336e-08</v>
+        <v>-0.007303148421641492</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.802092475055182e-07</v>
+        <v>0.2077099630894057</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.007303148421641492</v>
+        <v>0.04313047205604879</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2077099630894057</v>
+        <v>1.918936097350805</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.04313047205604879</v>
+        <v>3.172749226016311</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.948385402406078</v>
+        <v>6.575094991091939</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.172749226016311</v>
+        <v>4.904444438815723e-19</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>6.575094991091939</v>
+        <v>75472887275.30074</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.904444438815723e-19</v>
+        <v>1.590112367434449e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>75472887275.30074</v>
+        <v>2793.648411698291</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.590112367434449e-09</v>
+        <v>4.831868550022276e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>2793.648411698291</v>
+        <v>9.780773141779978</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>4.831868550022276e-05</v>
+        <v>1.238711542296434</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.780773141779978</v>
+        <v>0.004622335693806606</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.238711542296434</v>
+        <v>6.497044559528497</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.004622335693806606</v>
+        <v>0.9638189579877181</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>6.497044559528497</v>
+        <v>0.9135204283185228</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9638189579877181</v>
+        <v>342</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.9135204283185228</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>342</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>9.332330024180493</v>
       </c>
     </row>
@@ -6763,72 +6709,66 @@
         <v>1.080036997384196e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1.222720176681204</v>
+        <v>3.588623428230336e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.1989963113926905</v>
+        <v>4.802084058103779e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.588623428230336e-08</v>
+        <v>0.006215005409586823</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.802084058103779e-07</v>
+        <v>0.1755995021900967</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.006215005409586823</v>
+        <v>0.03083979701983867</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1755995021900967</v>
+        <v>1.917372831828575</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03083979701983867</v>
+        <v>3.289773968972418</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.944900417588149</v>
+        <v>6.820279906903169</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.289773968972418</v>
+        <v>4.558159149481138e-19</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>6.820279906903169</v>
+        <v>82107997615.53401</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.558159149481138e-19</v>
+        <v>1.462351494953169e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>82107997615.53401</v>
+        <v>3072.984761750829</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.462351494953169e-09</v>
+        <v>6.005925680921345e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>3072.984761750829</v>
+        <v>8.035832366498298</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>6.005925680921345e-05</v>
+        <v>1.557120516606733</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.035832366498298</v>
+        <v>0.003878302594207925</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.557120516606733</v>
+        <v>6.112244101736093</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.003878302594207925</v>
+        <v>0.9640650793724848</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>6.112244101736093</v>
+        <v>0.9132492025298796</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9640650793724848</v>
+        <v>348</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.9132492025298796</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>348</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>7.62031225676502</v>
       </c>
     </row>
@@ -6843,72 +6783,66 @@
         <v>1.070978007878162e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-1.267155044048508</v>
+        <v>3.588623428230336e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.3406471666893132</v>
+        <v>4.803297076796671e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.588623428230336e-08</v>
+        <v>0.01570404481162766</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.803297076796671e-07</v>
+        <v>0.157367251231705</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.01570404481162766</v>
+        <v>0.02499364906642248</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.157367251231705</v>
+        <v>1.918752353386507</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02499364906642248</v>
+        <v>3.174840871857249</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.946533354426709</v>
+        <v>6.913797421615117</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3.174840871857249</v>
+        <v>4.43568381646613e-19</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>6.913797421615117</v>
+        <v>86178704228.83244</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.43568381646613e-19</v>
+        <v>1.391696655435295e-09</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>86178704228.83244</v>
+        <v>3294.279933943131</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.391696655435295e-09</v>
+        <v>6.71076603345389e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>3294.279933943131</v>
+        <v>8.279320080810393</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>6.71076603345389e-05</v>
+        <v>1.369890799163898</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.279320080810393</v>
+        <v>0.004600038255165985</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.369890799163898</v>
+        <v>5.663935371510028</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.004600038255165985</v>
+        <v>0.9627550529554427</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>5.663935371510028</v>
+        <v>0.8863490913244463</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9627550529554427</v>
+        <v>380</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.8863490913244463</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>380</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>6.477781893254827</v>
       </c>
     </row>
@@ -6923,72 +6857,66 @@
         <v>1.049550040418931e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-1.333365958180744</v>
+        <v>3.588623428230336e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.6034124122346478</v>
+        <v>4.805344962546105e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.588623428230336e-08</v>
+        <v>0.02246905069933619</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.805344962546105e-07</v>
+        <v>0.1494192604482164</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.02246905069933619</v>
+        <v>0.02282247377435252</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1494192604482164</v>
+        <v>1.919794986996828</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02282247377435252</v>
+        <v>3.812836179509238</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.946702324625293</v>
+        <v>6.858581414899168</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.812836179509238</v>
+        <v>4.507391540721241e-19</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>6.858581414899168</v>
+        <v>88728830768.33781</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.507391540721241e-19</v>
+        <v>1.358678230670911e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>88728830768.33781</v>
+        <v>3548.581650459833</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.358678230670911e-09</v>
+        <v>7.52004361311868e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>3548.581650459833</v>
+        <v>9.036299355557951</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>7.52004361311868e-05</v>
+        <v>1.246353282602651</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.036299355557951</v>
+        <v>0.006140469506616784</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.246353282602651</v>
+        <v>5.257386348518025</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006140469506616784</v>
+        <v>0.9613859805014036</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>5.257386348518025</v>
+        <v>0.8836497008044988</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9613859805014036</v>
+        <v>384</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.8836497008044988</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>384</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>5.719864605716428</v>
       </c>
     </row>
@@ -7003,72 +6931,66 @@
         <v>1.01574128954828e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-1.400126336039849</v>
+        <v>3.588623428230336e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.9346930421179898</v>
+        <v>4.807937644995564e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.588623428230336e-08</v>
+        <v>0.02743529853353626</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.807937644995564e-07</v>
+        <v>0.148645231345312</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.02743529853353626</v>
+        <v>0.02284421748249529</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.148645231345312</v>
+        <v>1.912799816782006</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02284421748249529</v>
+        <v>3.770714787853675</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.945929165290976</v>
+        <v>6.776663014024364</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.770714787853675</v>
+        <v>4.617023682634892e-19</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>6.776663014024364</v>
+        <v>87220301192.6895</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>4.617023682634892e-19</v>
+        <v>1.380404294882263e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>87220301192.6895</v>
+        <v>3512.34579634677</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.380404294882263e-09</v>
+        <v>8.058347159840414e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>3512.34579634677</v>
+        <v>9.665194264841617</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>8.058347159840414e-05</v>
+        <v>1.179287428687583</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.665194264841617</v>
+        <v>0.007527783985440619</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.179287428687583</v>
+        <v>5.070012512863665</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.007527783985440619</v>
+        <v>0.9599312469268104</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>5.070012512863665</v>
+        <v>0.8793024875822091</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9599312469268104</v>
+        <v>350</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.8793024875822091</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>350</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>5.544492353530806</v>
       </c>
     </row>
@@ -7083,72 +7005,66 @@
         <v>9.709336586655182e-09</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-1.45055945378577</v>
+        <v>3.588623428230336e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1.276377113016559</v>
+        <v>4.810860117110902e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.588623428230336e-08</v>
+        <v>0.03116137993540796</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.810860117110902e-07</v>
+        <v>0.1529779160306051</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.03116137993540796</v>
+        <v>0.02437182860890618</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1529779160306051</v>
+        <v>1.915532672052521</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02437182860890618</v>
+        <v>3.4371249533218</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.948641196217099</v>
+        <v>6.791526519868219</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.4371249533218</v>
+        <v>4.596836744118344e-19</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>6.791526519868219</v>
+        <v>86998528834.72409</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>4.596836744118344e-19</v>
+        <v>1.384587355135637e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>86998528834.72409</v>
+        <v>3479.228061523293</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.384587355135637e-09</v>
+        <v>8.294187430356407e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>3479.228061523293</v>
+        <v>9.224583214017798</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>8.294187430356407e-05</v>
+        <v>1.229270059759468</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.224583214017798</v>
+        <v>0.007057767558068024</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.229270059759468</v>
+        <v>5.232506621000972</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.007057767558068024</v>
+        <v>0.9598523403770952</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>5.232506621000972</v>
+        <v>0.8721691202619127</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9598523403770952</v>
+        <v>363</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.8721691202619127</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>363</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>5.796106817919981</v>
       </c>
     </row>
@@ -7163,72 +7079,66 @@
         <v>9.171680882186831e-09</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-1.467713435431238</v>
+        <v>3.588623428230336e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1.557931519518366</v>
+        <v>4.813935987512116e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.588623428230336e-08</v>
+        <v>0.03376102548899673</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.813935987512116e-07</v>
+        <v>0.1613521718765278</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.03376102548899673</v>
+        <v>0.02717403935058819</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1613521718765278</v>
+        <v>1.918761009746816</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02717403935058819</v>
+        <v>3.444842124997465</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.955062502188681</v>
+        <v>6.748477915969186</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.444842124997465</v>
+        <v>4.655670326879176e-19</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>6.748477915969186</v>
+        <v>86608691168.04202</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>4.655670326879176e-19</v>
+        <v>1.390014100072697e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>86608691168.04202</v>
+        <v>3492.248753684175</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.390014100072697e-09</v>
+        <v>8.006933385878224e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>3492.248753684175</v>
+        <v>8.430772119658782</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>8.006933385878224e-05</v>
+        <v>1.428831868107827</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.430772119658782</v>
+        <v>0.00569116158905541</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.428831868107827</v>
+        <v>5.539092689508644</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.00569116158905541</v>
+        <v>0.9595067542963049</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>5.539092689508644</v>
+        <v>0.8543274051236412</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9595067542963049</v>
+        <v>368</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.8543274051236412</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>368</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>6.423353330511817</v>
       </c>
     </row>
@@ -7243,72 +7153,66 @@
         <v>8.571653834827248e-09</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-1.431878881026946</v>
+        <v>3.581817535445582e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1.683840088076431</v>
+        <v>4.817004850895387e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.581817535445582e-08</v>
+        <v>0.03518842482279994</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.817004850895387e-07</v>
+        <v>0.1730068926448628</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.03518842482279994</v>
+        <v>0.03116938862448342</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1730068926448628</v>
+        <v>1.920011731777814</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03116938862448342</v>
+        <v>3.449698333000971</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.95593382949454</v>
+        <v>6.927204630835448</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.449698333000971</v>
+        <v>4.41853040651308e-19</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>6.927204630835448</v>
+        <v>89426720595.48439</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>4.41853040651308e-19</v>
+        <v>1.34553506499038e-09</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>89426720595.48439</v>
+        <v>3533.559899312306</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.34553506499038e-09</v>
+        <v>6.844176271350815e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>3533.559899312306</v>
+        <v>8.603984215471574</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>6.844176271350815e-05</v>
+        <v>1.354765612922208</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.603984215471574</v>
+        <v>0.005066644068488115</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.354765612922208</v>
+        <v>5.657124414739968</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.005066644068488115</v>
+        <v>0.9599661869236688</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>5.657124414739968</v>
+        <v>0.9065376491112545</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9599661869236688</v>
+        <v>386</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.9065376491112545</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>386</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>6.731564367223652</v>
       </c>
     </row>
@@ -7323,72 +7227,66 @@
         <v>7.943549090994189e-09</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-1.322088857351437</v>
+        <v>3.507146122567283e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1.534389411475196</v>
+        <v>4.819924377904754e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.507146122567283e-08</v>
+        <v>0.03525115730786608</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.819924377904754e-07</v>
+        <v>0.1870049545937305</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.03525115730786608</v>
+        <v>0.03621197165670334</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1870049545937305</v>
+        <v>1.909191762166731</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03621197165670334</v>
+        <v>3.709988852627153</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.95563821912214</v>
+        <v>6.991352034815995</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.709988852627153</v>
+        <v>4.337820137678035e-19</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>6.991352034815995</v>
+        <v>89619097329.50845</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.337820137678035e-19</v>
+        <v>1.336104553840103e-09</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>89619097329.50845</v>
+        <v>3483.956076640774</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.336104553840103e-09</v>
+        <v>6.808923969898846e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>3483.956076640774</v>
+        <v>9.054528648409168</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>6.808923969898846e-05</v>
+        <v>1.325293641935402</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.054528648409168</v>
+        <v>0.005582261526174727</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.325293641935402</v>
+        <v>5.432533962799962</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.005582261526174727</v>
+        <v>0.9603978295550138</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>5.432533962799962</v>
+        <v>0.8665740670980897</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9603978295550138</v>
+        <v>379</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.8665740670980897</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>379</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>6.387401702213589</v>
       </c>
     </row>
@@ -7403,72 +7301,66 @@
         <v>7.331081163819038e-09</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-1.125255002418417</v>
+        <v>3.348345910922459e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1.005650420664228</v>
+        <v>4.822561031114158e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.348345910922459e-08</v>
+        <v>0.03342148146935418</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.822561031114158e-07</v>
+        <v>0.2017019010734608</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.03342148146935418</v>
+        <v>0.04179537357981837</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2017019010734608</v>
+        <v>1.907098806765758</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.04179537357981837</v>
+        <v>3.637223539160348</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.95231851012623</v>
+        <v>6.971097123745591</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.637223539160348</v>
+        <v>4.363064314819232e-19</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>6.971097123745591</v>
+        <v>88189622865.15947</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>4.363064314819232e-19</v>
+        <v>1.357121258091624e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>88189622865.15947</v>
+        <v>3393.333820502649</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.357121258091624e-09</v>
+        <v>6.874512107183566e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>3393.333820502649</v>
+        <v>8.595031604078407</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>6.874512107183566e-05</v>
+        <v>1.325755527198451</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.595031604078407</v>
+        <v>0.005078516140201795</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.325755527198451</v>
+        <v>5.365786458581317</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.005078516140201795</v>
+        <v>0.9606308587864248</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>5.365786458581317</v>
+        <v>0.8524710907603411</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9606308587864248</v>
+        <v>337</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.8524710907603411</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>337</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>6.098714929646967</v>
       </c>
     </row>
@@ -7483,72 +7375,66 @@
         <v>6.792414823417824e-09</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.8621174146460858</v>
+        <v>3.089978127153318e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.1452222953297002</v>
+        <v>4.824770484213982e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>3.089978127153318e-08</v>
+        <v>0.02860383137871491</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.824770484213982e-07</v>
+        <v>0.2133422386548645</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.02860383137871491</v>
+        <v>0.04631907658354597</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2133422386548645</v>
+        <v>1.908870714493121</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.04631907658354597</v>
+        <v>3.825218720831129</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.95182883168995</v>
+        <v>6.809306393834391</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.825218720831129</v>
+        <v>4.572862357145938e-19</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>6.809306393834391</v>
+        <v>84141749469.33388</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>4.572862357145938e-19</v>
+        <v>1.422837880454289e-09</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>84141749469.33388</v>
+        <v>3237.510641063659</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.422837880454289e-09</v>
+        <v>6.52327497680553e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>3237.510641063659</v>
+        <v>8.019723759069645</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>6.52327497680553e-05</v>
+        <v>1.340835383024291</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.019723759069645</v>
+        <v>0.004195507523073086</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.340835383024291</v>
+        <v>5.601569143565785</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.004195507523073086</v>
+        <v>0.9609711194770794</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>5.601569143565785</v>
+        <v>0.8647221794469511</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9609711194770794</v>
+        <v>295</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.8647221794469511</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>295</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>6.526078718482067</v>
       </c>
     </row>
@@ -7563,72 +7449,66 @@
         <v>6.397430358856532e-09</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.6167145415109853</v>
+        <v>2.724561204986689e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.6887189753958918</v>
+        <v>4.82638751415531e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.724561204986689e-08</v>
+        <v>0.01983934728253477</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.82638751415531e-07</v>
+        <v>0.2154989105977716</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.01983934728253477</v>
+        <v>0.04680619730001919</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2154989105977716</v>
+        <v>1.903933029290556</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.04680619730001919</v>
+        <v>3.420280789924016</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.94589463378527</v>
+        <v>6.606390691703885</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.420280789924016</v>
+        <v>4.858087969354582e-19</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>6.606390691703885</v>
+        <v>81259568051.658</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.858087969354582e-19</v>
+        <v>1.477221711457573e-09</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>81259568051.658</v>
+        <v>3207.852520089432</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.477221711457573e-09</v>
+        <v>5.552050779526886e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>3207.852520089432</v>
+        <v>8.373861731282972</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>5.552050779526886e-05</v>
+        <v>1.371950478074049</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.373861731282972</v>
+        <v>0.003893184634955277</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.371950478074049</v>
+        <v>6.157377881944023</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.003893184634955277</v>
+        <v>0.9618483510144269</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>6.157377881944023</v>
+        <v>0.8664181269619226</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9618483510144269</v>
+        <v>288</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.8664181269619226</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>288</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>8.32406414721228</v>
       </c>
     </row>
@@ -7643,72 +7523,66 @@
         <v>6.195532266045294e-09</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.4879174350745473</v>
+        <v>2.276118331991416e-08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.092237194027624</v>
+        <v>4.827265110901396e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.276118331991416e-08</v>
+        <v>0.00766949439678196</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.827265110901396e-07</v>
+        <v>0.2029093982297373</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.00766949439678196</v>
+        <v>0.04119177302728187</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2029093982297373</v>
+        <v>1.908738615086079</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.04119177302728187</v>
+        <v>3.274066041423735</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.947198226986694</v>
+        <v>7.13500794708414</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.274066041423735</v>
+        <v>5.768794225719734e-19</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>7.13500794708414</v>
+        <v>69483386290.99677</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>5.768794225719734e-19</v>
+        <v>1.72940684718006e-09</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>69483386290.99677</v>
+        <v>2785.139799252774</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.72940684718006e-09</v>
+        <v>4.61828878849738e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>2785.139799252774</v>
+        <v>9.272017884269106</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>4.61828878849738e-05</v>
+        <v>1.276645074595113</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.272017884269106</v>
+        <v>0.003970357448924548</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.276645074595113</v>
+        <v>6.676053304634431</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.003970357448924548</v>
+        <v>0.962893994575071</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>6.676053304634431</v>
+        <v>0.8561113771423651</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.962893994575071</v>
+        <v>288</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.8561113771423651</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>288</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>10.34148125297078</v>
       </c>
     </row>
@@ -7723,72 +7597,66 @@
         <v>6.182447773719324e-09</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.4785293830184258</v>
+        <v>2.006834606389469e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.120787582326731</v>
+        <v>4.827315019676203e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.006834606389469e-08</v>
+        <v>-0.00602249955726139</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.827315019676203e-07</v>
+        <v>0.1752477647087675</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.00602249955726139</v>
+        <v>0.03070566549400639</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1752477647087675</v>
+        <v>1.914493071898344</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.03070566549400639</v>
+        <v>3.196367581512148</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.950852777458409</v>
+        <v>7.103642635657556</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>3.196367581512148</v>
+        <v>5.819849577632883e-19</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>7.103642635657556</v>
+        <v>70372778594.1302</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>5.819849577632883e-19</v>
+        <v>1.714114577994691e-09</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>70372778594.1302</v>
+        <v>2882.180382738475</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.714114577994691e-09</v>
+        <v>3.580684816615735e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>2882.180382738475</v>
+        <v>10.60321066984202</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>3.580684816615735e-05</v>
+        <v>1.082313780869533</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.60321066984202</v>
+        <v>0.004025695065172737</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.082313780869533</v>
+        <v>6.99029459656702</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.004025695065172737</v>
+        <v>0.9631048175013275</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>6.99029459656702</v>
+        <v>0.9111611779310479</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9631048175013275</v>
+        <v>303</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.9111611779310479</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>303</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>11.75138630751616</v>
       </c>
     </row>
@@ -7803,72 +7671,66 @@
         <v>6.301200302539692e-09</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.5015381661282853</v>
+        <v>2.018895941312789e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.100294368323778</v>
+        <v>4.826524995576005e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.018895941312789e-08</v>
+        <v>-0.0187740638212524</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.826524995576005e-07</v>
+        <v>0.1406748415960073</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.0187740638212524</v>
+        <v>0.02011130954488442</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1406748415960073</v>
+        <v>1.913448692932637</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02011130954488442</v>
+        <v>2.977869299652334</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.948355611695708</v>
+        <v>7.159710996961267</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.977869299652334</v>
+        <v>5.729054921457793e-19</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>7.159710996961267</v>
+        <v>71945495827.21179</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>5.729054921457793e-19</v>
+        <v>1.675103347010822e-09</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>71945495827.21179</v>
+        <v>2965.447266666172</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.675103347010822e-09</v>
+        <v>3.19466592298033e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>2965.447266666172</v>
+        <v>9.544858582634269</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>3.19466592298033e-05</v>
+        <v>1.241478359892381</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.544858582634269</v>
+        <v>0.002910478836716501</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.241478359892381</v>
+        <v>7.04904190095664</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.002910478836716501</v>
+        <v>0.9620825287540967</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>7.04904190095664</v>
+        <v>0.8546667097368676</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9620825287540967</v>
+        <v>315</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.8546667097368676</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>315</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>11.43569958203474</v>
       </c>
     </row>
@@ -7883,72 +7745,66 @@
         <v>6.476872155787242e-09</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.496573368721298</v>
+        <v>2.031649455165297e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.1488193135504</v>
+        <v>4.824990793708347e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.031649455165297e-08</v>
+        <v>-0.02870006023637174</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.824990793708347e-07</v>
+        <v>0.1099893076720294</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.02870006023637174</v>
+        <v>0.01290147900343134</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1099893076720294</v>
+        <v>1.920198368333142</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01290147900343134</v>
+        <v>3.067017907173584</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.951639885646706</v>
+        <v>7.29808089262005</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>3.067017907173584</v>
+        <v>4.997694751434516e-19</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>7.29808089262005</v>
+        <v>82002467104.88699</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>4.997694751434516e-19</v>
+        <v>1.471698905872532e-09</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>82002467104.88699</v>
+        <v>3360.652163235647</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.471698905872532e-09</v>
+        <v>4.220477138933619e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>3360.652163235647</v>
+        <v>7.157345359278625</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>4.220477138933619e-05</v>
+        <v>1.59944646036997</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>7.157345359278625</v>
+        <v>0.002162048834170875</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.59944646036997</v>
+        <v>6.558296016235555</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.002162048834170875</v>
+        <v>0.9622661072406966</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>6.558296016235555</v>
+        <v>0.8599358305883309</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9622661072406966</v>
+        <v>347</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.8599358305883309</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>347</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>9.165847297539518</v>
       </c>
     </row>
@@ -7963,72 +7819,66 @@
         <v>6.65447234112322e-09</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.4592086880022708</v>
+        <v>2.038146061114605e-08</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.227081229300682</v>
+        <v>4.822837149326357e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.038146061114605e-08</v>
+        <v>-0.03649922832429912</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.822837149326357e-07</v>
+        <v>0.08164881338469249</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.03649922832429912</v>
+        <v>0.007984332009273992</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.08164881338469249</v>
+        <v>1.928560529985943</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.007984332009273992</v>
+        <v>3.299543295529933</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.959055730015649</v>
+        <v>6.615356810408972</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>3.299543295529933</v>
+        <v>4.628325521833041e-19</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>6.615356810408972</v>
+        <v>88457196774.85718</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>4.628325521833041e-19</v>
+        <v>1.3634947180598e-09</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>88457196774.85718</v>
+        <v>3621.514606310234</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.3634947180598e-09</v>
+        <v>4.697119166382134e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>3621.514606310234</v>
+        <v>6.981751890933001</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>4.697119166382134e-05</v>
+        <v>1.389510329607642</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>6.981751890933001</v>
+        <v>0.002289604136629194</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.389510329607642</v>
+        <v>6.152472897387448</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.002289604136629194</v>
+        <v>0.9624990458637863</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>6.152472897387448</v>
+        <v>0.8797153648012764</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9624990458637863</v>
+        <v>343</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.8797153648012764</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>343</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>7.87524541301097</v>
       </c>
     </row>
@@ -8405,7 +8255,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.467361404503217</v>
+        <v>1.492939049837687</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.246096219962601</v>
@@ -8494,7 +8344,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.504829327543761</v>
+        <v>1.530578659833039</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.269667291491747</v>
@@ -8583,7 +8433,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.537576776595906</v>
+        <v>1.562109299283315</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.216476512076968</v>
@@ -8672,7 +8522,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.527219463665022</v>
+        <v>1.545517231010871</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.392882455545537</v>
@@ -8761,7 +8611,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.557890859276864</v>
+        <v>1.575190955500928</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.402995051869947</v>
@@ -8850,7 +8700,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.570639822720391</v>
+        <v>1.58704895615545</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.416632956146846</v>
@@ -8939,7 +8789,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.546514657833682</v>
+        <v>1.563103986059077</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.404766411287416</v>
@@ -9028,7 +8878,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.541606117848958</v>
+        <v>1.559777678542165</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.423605562394686</v>
@@ -9117,7 +8967,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.581260423477507</v>
+        <v>1.595085157922761</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.308067169689332</v>
@@ -9206,7 +9056,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.610404304034635</v>
+        <v>1.617086824047423</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.385670767207511</v>
@@ -9295,7 +9145,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.643903644281312</v>
+        <v>1.648033927481575</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.384557782823792</v>
@@ -9384,7 +9234,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.632204354213331</v>
+        <v>1.634366996125421</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.483038430770109</v>
@@ -9473,7 +9323,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.624218305760941</v>
+        <v>1.628336013892291</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.455227205515415</v>
@@ -9562,7 +9412,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.656726514828078</v>
+        <v>1.658104391665527</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.351023260760125</v>
@@ -9651,7 +9501,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.654837705799776</v>
+        <v>1.650818396204239</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.351267349158462</v>
@@ -9740,7 +9590,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.654450380729579</v>
+        <v>1.653756179247416</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.437313433960776</v>
@@ -9829,7 +9679,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.618257616902181</v>
+        <v>1.619082535586285</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.224681311168712</v>
@@ -9918,7 +9768,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.645942434593795</v>
+        <v>1.643888169124615</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.39498397795375</v>
@@ -10007,7 +9857,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.686987368432633</v>
+        <v>1.685354926797377</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.223953499163756</v>
@@ -10096,7 +9946,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.692405181280302</v>
+        <v>1.692692266046335</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.405152073393219</v>
@@ -10185,7 +10035,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.685162100863902</v>
+        <v>1.686792427376351</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.368356949984633</v>
@@ -10274,7 +10124,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.737658813397907</v>
+        <v>1.732175822855431</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.338066174160772</v>
@@ -10363,7 +10213,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.737272489860487</v>
+        <v>1.738524747659795</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.381667967623107</v>
@@ -10452,7 +10302,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.739719323104911</v>
+        <v>1.745015572587308</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.302285551028087</v>
@@ -10541,7 +10391,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.685116355415766</v>
+        <v>1.699494323018453</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.402841255748665</v>
@@ -10630,7 +10480,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.690950075214599</v>
+        <v>1.71050467802608</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.454765859533738</v>
@@ -10719,7 +10569,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.660537122995105</v>
+        <v>1.676479415813783</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.183763785196775</v>
@@ -10808,7 +10658,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.657920569954262</v>
+        <v>1.682502771176567</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.278041683621621</v>
@@ -10897,7 +10747,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.65731307393046</v>
+        <v>1.683045950084217</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.272461491004912</v>
@@ -10986,7 +10836,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.610330669589679</v>
+        <v>1.636672553370475</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.343125339659013</v>
@@ -11075,7 +10925,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.620613237739791</v>
+        <v>1.637906441323884</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.158674424805132</v>
@@ -11164,7 +11014,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.661914386169627</v>
+        <v>1.680970103742462</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.375347063788637</v>
@@ -11253,7 +11103,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.674856801746248</v>
+        <v>1.6956075996658</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.260392656955702</v>
@@ -11342,7 +11192,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.671819286205255</v>
+        <v>1.69005238320246</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.28309080553956</v>
@@ -11431,7 +11281,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.645478400945413</v>
+        <v>1.66800045899868</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.214768952919977</v>
@@ -11520,7 +11370,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.648135523740872</v>
+        <v>1.671423681035281</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.322696947486475</v>
@@ -11609,7 +11459,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.646605586317496</v>
+        <v>1.671803467448894</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.293990645511712</v>
@@ -11698,7 +11548,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.607439859382823</v>
+        <v>1.633808665500613</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.292768091801381</v>
@@ -11787,7 +11637,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.610165292147039</v>
+        <v>1.631022083773249</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.121917101554252</v>
@@ -11876,7 +11726,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.648602318710151</v>
+        <v>1.673202520932362</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.276199182260321</v>
@@ -11965,7 +11815,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.648012431817121</v>
+        <v>1.670292084499523</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.257023954437892</v>
@@ -12054,7 +11904,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.65285625231239</v>
+        <v>1.675593860324332</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.127310304034211</v>
@@ -12143,7 +11993,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.620592787783353</v>
+        <v>1.641480543933342</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.330632678194705</v>
@@ -12232,7 +12082,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.614399411211941</v>
+        <v>1.633580512129964</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.164449796030435</v>
@@ -12321,7 +12171,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.661716065450101</v>
+        <v>1.685310032662247</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.414853123319423</v>
@@ -12410,7 +12260,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.668753929125881</v>
+        <v>1.696505713107529</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.514457289860033</v>
@@ -12499,7 +12349,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.669299093400588</v>
+        <v>1.700684266713436</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.47783988502278</v>
@@ -12588,7 +12438,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.665139802465784</v>
+        <v>1.695690135042266</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.487900853834131</v>
@@ -12677,7 +12527,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.649183421618069</v>
+        <v>1.666569811994969</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.417749524581454</v>
@@ -12766,7 +12616,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.651374179255931</v>
+        <v>1.677288395348534</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.445332837181689</v>
@@ -12855,7 +12705,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.657014803471274</v>
+        <v>1.685340886320029</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.472900159157536</v>
@@ -12944,7 +12794,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.670059275503641</v>
+        <v>1.691044522250121</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.235043534461209</v>
@@ -13033,7 +12883,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.701661246039629</v>
+        <v>1.725090295203418</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.447868008498951</v>
@@ -13122,7 +12972,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.707697163431244</v>
+        <v>1.730023264441962</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.58043371494832</v>
@@ -13211,7 +13061,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.697827440037001</v>
+        <v>1.719925708516687</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.425816985372431</v>
@@ -13300,7 +13150,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.65548896837758</v>
+        <v>1.683658551501892</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.494858831850891</v>
@@ -13389,7 +13239,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.690379039111608</v>
+        <v>1.715548624059352</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.367186237726112</v>
@@ -13478,7 +13328,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.738876781114905</v>
+        <v>1.75728443798064</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.362319038210957</v>
@@ -13567,7 +13417,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.74717040072566</v>
+        <v>1.768079507559604</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.571626207814405</v>
@@ -13656,7 +13506,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.712588986553838</v>
+        <v>1.733765221725559</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.49538921621237</v>
@@ -13745,7 +13595,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.698570433646752</v>
+        <v>1.721876282857748</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.559124361107011</v>
@@ -13834,7 +13684,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.688256868131656</v>
+        <v>1.708903856442746</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.47417080947346</v>
@@ -13923,7 +13773,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.677487805014086</v>
+        <v>1.699787467358774</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.529102717952767</v>
@@ -14012,7 +13862,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.711554168318398</v>
+        <v>1.737562772609713</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.30964060288746</v>
@@ -14101,7 +13951,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.718051150578652</v>
+        <v>1.742102273071197</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.578175270144029</v>
@@ -14190,7 +14040,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.671302249497347</v>
+        <v>1.69222427084827</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.582862022618174</v>
@@ -14279,7 +14129,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.665945897964006</v>
+        <v>1.687938860516832</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.578090375444884</v>
@@ -14368,7 +14218,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.662786358993031</v>
+        <v>1.686746381800945</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.506603451937598</v>
@@ -14654,7 +14504,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.424678872456212</v>
+        <v>1.442025895348878</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.753144255108824</v>
@@ -14743,7 +14593,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.44279286755339</v>
+        <v>1.459977915200388</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.717218839452311</v>
@@ -14832,7 +14682,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.443795533434478</v>
+        <v>1.458771345250206</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.76577580652913</v>
@@ -14921,7 +14771,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.448644263489392</v>
+        <v>1.462044865947278</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.732494341099085</v>
@@ -15010,7 +14860,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.465572053460169</v>
+        <v>1.477547598347293</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.745629814350759</v>
@@ -15099,7 +14949,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.456428241855656</v>
+        <v>1.469865182326088</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.741617530764375</v>
@@ -15188,7 +15038,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.450480180705745</v>
+        <v>1.466373382629044</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.762214565056049</v>
@@ -15277,7 +15127,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.451486275359758</v>
+        <v>1.464598503946043</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.767203944599728</v>
@@ -15366,7 +15216,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.473658214142668</v>
+        <v>1.477767420644865</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.75475237480082</v>
@@ -15455,7 +15305,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.560324581560338</v>
+        <v>1.553993597857947</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.728995688332089</v>
@@ -15544,7 +15394,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.582874566293208</v>
+        <v>1.575835491447729</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.709424826679182</v>
@@ -15633,7 +15483,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.588619473336744</v>
+        <v>1.577217236056388</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.718397089545948</v>
@@ -15722,7 +15572,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.591398800586924</v>
+        <v>1.581077436064835</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.747828209814947</v>
@@ -15811,7 +15661,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.604966906081424</v>
+        <v>1.592784321223212</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.608081034690041</v>
@@ -15900,7 +15750,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.601283193158277</v>
+        <v>1.584346620478515</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.573964474932875</v>
@@ -15989,7 +15839,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.610425614870507</v>
+        <v>1.590019771732802</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.632248478238146</v>
@@ -16078,7 +15928,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.595987114167655</v>
+        <v>1.574420365014443</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.566074252996613</v>
@@ -16167,7 +16017,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.606230735705507</v>
+        <v>1.582672351313336</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.607912993626608</v>
@@ -16256,7 +16106,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.622459933189961</v>
+        <v>1.597029156699783</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.785964332932393</v>
@@ -16345,7 +16195,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.626696025428386</v>
+        <v>1.594813670963252</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.895838592255413</v>
@@ -16434,7 +16284,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.622677698291762</v>
+        <v>1.589900877042351</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.974592920486173</v>
@@ -16523,7 +16373,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.641442030179864</v>
+        <v>1.601834847950281</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.944812441206198</v>
@@ -16612,7 +16462,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.626620163106508</v>
+        <v>1.592115884669258</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.777447248697124</v>
@@ -16701,7 +16551,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.622402355978026</v>
+        <v>1.591051783853559</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.690848758579978</v>
@@ -16790,7 +16640,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.608864167674972</v>
+        <v>1.58101828301674</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.59015628872374</v>
@@ -16879,7 +16729,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.612283962324084</v>
+        <v>1.586190558211415</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.480024948554579</v>
@@ -16968,7 +16818,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.608619572862585</v>
+        <v>1.58345731186026</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.559221510620051</v>
@@ -17057,7 +16907,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.615723527968765</v>
+        <v>1.588445003529244</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.6294202838384</v>
@@ -17146,7 +16996,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.622004491866394</v>
+        <v>1.594969066780678</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.682863427073548</v>
@@ -17235,7 +17085,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.594958392070847</v>
+        <v>1.573943358175553</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.569301035264454</v>
@@ -17324,7 +17174,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.597582282934955</v>
+        <v>1.5706538408885</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.643100387440096</v>
@@ -17413,7 +17263,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.616827159152629</v>
+        <v>1.588210256668191</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.284092925239078</v>
@@ -17502,7 +17352,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.62507140618066</v>
+        <v>1.596827947142357</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.679980083110217</v>
@@ -17591,7 +17441,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.615619839643372</v>
+        <v>1.584651274093132</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.578147027622805</v>
@@ -17680,7 +17530,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.600357391249364</v>
+        <v>1.576785758805687</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.602895347720025</v>
@@ -17769,7 +17619,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.613155057844527</v>
+        <v>1.587473656660738</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.600792182315311</v>
@@ -17858,7 +17708,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.616683074544607</v>
+        <v>1.588180839889684</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.579560716413762</v>
@@ -17947,7 +17797,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.614090402540448</v>
+        <v>1.584385516155938</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.841358690383288</v>
@@ -18036,7 +17886,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.624480643739662</v>
+        <v>1.588657881771817</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.836044587008287</v>
@@ -18125,7 +17975,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.634751362967613</v>
+        <v>1.597865035810166</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.764609124552027</v>
@@ -18214,7 +18064,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.636085357714402</v>
+        <v>1.599365127494205</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.758196969130349</v>
@@ -18303,7 +18153,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.630362621298934</v>
+        <v>1.596978807957564</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.572238749402199</v>
@@ -18392,7 +18242,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.622352422810786</v>
+        <v>1.590592851486089</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.872148462649045</v>
@@ -18481,7 +18331,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.618010759911013</v>
+        <v>1.585605046056079</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.856331483475965</v>
@@ -18570,7 +18420,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.638366205466113</v>
+        <v>1.600021848152574</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.828826445196899</v>
@@ -18659,7 +18509,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.642901971125402</v>
+        <v>1.608703464608077</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.818880158134228</v>
@@ -18748,7 +18598,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.643989312477703</v>
+        <v>1.612109724046025</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.801268417369399</v>
@@ -18837,7 +18687,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.640532147833853</v>
+        <v>1.61551468994065</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.857558033431006</v>
@@ -18926,7 +18776,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.606944673203057</v>
+        <v>1.577011385001545</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.594980547393973</v>
@@ -19015,7 +18865,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.5839057662087</v>
+        <v>1.564504659617392</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.665765578707407</v>
@@ -19104,7 +18954,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.592174164122468</v>
+        <v>1.572280034631838</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.684810447832483</v>
@@ -19193,7 +19043,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.599478772574664</v>
+        <v>1.581189931202667</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.542661505110873</v>
@@ -19282,7 +19132,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.593900479105752</v>
+        <v>1.580230550411021</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.608802641406339</v>
@@ -19371,7 +19221,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.585043913768983</v>
+        <v>1.573726472610338</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.571240329932817</v>
@@ -19460,7 +19310,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.569033370205279</v>
+        <v>1.560339268611459</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.741130359531567</v>
@@ -19549,7 +19399,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.554829276886284</v>
+        <v>1.547743488609389</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.647362493431491</v>
@@ -19638,7 +19488,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.573914747601473</v>
+        <v>1.563317230720129</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.621904455234379</v>
@@ -19727,7 +19577,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.588213442196608</v>
+        <v>1.576414518082368</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.646670711785846</v>
@@ -19816,7 +19666,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.594438791353735</v>
+        <v>1.580655060745604</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.788147695351049</v>
@@ -19905,7 +19755,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.583607967218345</v>
+        <v>1.567622257262393</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.783907460668417</v>
@@ -19994,7 +19844,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.573170041287545</v>
+        <v>1.562463351859764</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.731044288618864</v>
@@ -20083,7 +19933,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.575131441449731</v>
+        <v>1.562938091622593</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.752409339623508</v>
@@ -20172,7 +20022,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.578449641669077</v>
+        <v>1.562774064558683</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.735533532189656</v>
@@ -20261,7 +20111,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.633522868299156</v>
+        <v>1.615516849515826</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.545195453438032</v>
@@ -20350,7 +20200,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.666215488975184</v>
+        <v>1.640120670426276</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.769301437529836</v>
@@ -20439,7 +20289,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.642028530352109</v>
+        <v>1.619602020254043</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.821201250989943</v>
@@ -20528,7 +20378,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.638743267272817</v>
+        <v>1.618003760166804</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.981264892561919</v>
@@ -20617,7 +20467,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.660549935858747</v>
+        <v>1.63649948698236</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.737198252943405</v>
@@ -20903,7 +20753,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.666705116398058</v>
+        <v>1.654989395008583</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.232227387530666</v>
@@ -20992,7 +20842,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.678022192659295</v>
+        <v>1.664172157098066</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.153769818745361</v>
@@ -21081,7 +20931,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.687368237806442</v>
+        <v>1.672478213341629</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.288351893501748</v>
@@ -21170,7 +21020,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.687016405518143</v>
+        <v>1.665408349501439</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.206342734875066</v>
@@ -21259,7 +21109,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.701095686496678</v>
+        <v>1.675435660217364</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.230169933860425</v>
@@ -21348,7 +21198,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.705072485922732</v>
+        <v>1.680563647753799</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.210885207349281</v>
@@ -21437,7 +21287,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.702386604367336</v>
+        <v>1.674243256627992</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.243586476154137</v>
@@ -21526,7 +21376,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.698431831963294</v>
+        <v>1.672034434874024</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.306763665188564</v>
@@ -21615,7 +21465,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.723704963912896</v>
+        <v>1.691975385683324</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.130443874744356</v>
@@ -21704,7 +21554,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.740044630744129</v>
+        <v>1.700435726865283</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.723341115059033</v>
@@ -21793,7 +21643,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.759526687937659</v>
+        <v>1.717950246525313</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.02535794639577</v>
@@ -21882,7 +21732,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.755276306724827</v>
+        <v>1.711873028444107</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.367502332113359</v>
@@ -21971,7 +21821,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.762327768113775</v>
+        <v>1.71700018385459</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.064368886863451</v>
@@ -22060,7 +21910,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.772168371038751</v>
+        <v>1.729337904236057</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.478352694235459</v>
@@ -22149,7 +21999,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.77164502011884</v>
+        <v>1.726921342408475</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.583523087875196</v>
@@ -22238,7 +22088,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.771656711867651</v>
+        <v>1.723036064709431</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.520873441094725</v>
@@ -22327,7 +22177,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.761743075242575</v>
+        <v>1.715089957421057</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.161599965814065</v>
@@ -22416,7 +22266,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.768804251627731</v>
+        <v>1.719144673019859</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.283118351280601</v>
@@ -22505,7 +22355,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.781962041868312</v>
+        <v>1.733323585766281</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.198392187141503</v>
@@ -22594,7 +22444,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.78215239020594</v>
+        <v>1.734601457712739</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.497766382803126</v>
@@ -22683,7 +22533,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.776975193986249</v>
+        <v>1.729425784733449</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.439772831487812</v>
@@ -22772,7 +22622,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.777554111828386</v>
+        <v>1.733839045020487</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.126467205076882</v>
@@ -22861,7 +22711,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.773360931627839</v>
+        <v>1.727566438049399</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.561675932920993</v>
@@ -22950,7 +22800,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.772365929488193</v>
+        <v>1.725211457970011</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.441933907492626</v>
@@ -23039,7 +22889,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.752994513407907</v>
+        <v>1.707782795534701</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.319701302228365</v>
@@ -23128,7 +22978,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.746262927678314</v>
+        <v>1.699604681336964</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.586078828165479</v>
@@ -23217,7 +23067,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.737520664522834</v>
+        <v>1.692732948124666</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.091170861683522</v>
@@ -23306,7 +23156,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.740370041790636</v>
+        <v>1.696054243936987</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.3583788370226</v>
@@ -23395,7 +23245,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.744274060543987</v>
+        <v>1.699139621316012</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.124337296077834</v>
@@ -23484,7 +23334,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.734085232304867</v>
+        <v>1.689580064079928</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.185909772013473</v>
@@ -23573,7 +23423,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.735495623454578</v>
+        <v>1.691820669287803</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.986626001352165</v>
@@ -23662,7 +23512,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.748547450686709</v>
+        <v>1.699455325207573</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.380022055863467</v>
@@ -23751,7 +23601,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.747908843148673</v>
+        <v>1.700823029395914</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.190140636776781</v>
@@ -23840,7 +23690,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.746240293195611</v>
+        <v>1.698110035231907</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.090693752298227</v>
@@ -23929,7 +23779,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.741741559888804</v>
+        <v>1.697865197380808</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.808940699970664</v>
@@ -24018,7 +23868,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.744984821579427</v>
+        <v>1.700613044526604</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.287841526039777</v>
@@ -24107,7 +23957,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.745301318530342</v>
+        <v>1.697660052312467</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.118748897023781</v>
@@ -24196,7 +24046,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.741417430744058</v>
+        <v>1.696726939558915</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.105290208513971</v>
@@ -24285,7 +24135,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.740154567608457</v>
+        <v>1.694371228715528</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.044550280640954</v>
@@ -24374,7 +24224,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.74747717396343</v>
+        <v>1.703794586534346</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.121306819845418</v>
@@ -24463,7 +24313,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.754962644392746</v>
+        <v>1.714221852527211</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.068379022629666</v>
@@ -24552,7 +24402,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.761577627805941</v>
+        <v>1.72547500778512</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.319097468953121</v>
@@ -24641,7 +24491,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.759863486950563</v>
+        <v>1.724933254980419</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.670226164852807</v>
@@ -24730,7 +24580,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.762062563353895</v>
+        <v>1.727597989205004</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.66694488377504</v>
@@ -24819,7 +24669,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.777585178327404</v>
+        <v>1.742071841934156</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.728802481646992</v>
@@ -24908,7 +24758,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.774379308230321</v>
+        <v>1.736440156132078</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.584210218087184</v>
@@ -24997,7 +24847,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.776919732387091</v>
+        <v>1.742912963157018</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.522262341022186</v>
@@ -25086,7 +24936,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.776860216235235</v>
+        <v>1.74489723820931</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.609114871264446</v>
@@ -25175,7 +25025,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.766804921712452</v>
+        <v>1.736722861235505</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.239030060946258</v>
@@ -25264,7 +25114,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.757147338443174</v>
+        <v>1.731683598795736</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.709216853638704</v>
@@ -25353,7 +25203,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.764882606508331</v>
+        <v>1.738696175832189</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.628220923053517</v>
@@ -25442,7 +25292,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.772010765721358</v>
+        <v>1.748065664111259</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.242202978197068</v>
@@ -25531,7 +25381,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.775175261781476</v>
+        <v>1.754608442427358</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.599597703489302</v>
@@ -25620,7 +25470,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.77185005360973</v>
+        <v>1.749899585797275</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.246312248599415</v>
@@ -25709,7 +25559,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.770309682527904</v>
+        <v>1.746701459847084</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.691955695204598</v>
@@ -25798,7 +25648,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.760447106038397</v>
+        <v>1.741756928471594</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.499041774611677</v>
@@ -25887,7 +25737,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.774634546418326</v>
+        <v>1.751502674126636</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.338076562524432</v>
@@ -25976,7 +25826,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.7732120204843</v>
+        <v>1.741879625712216</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.213574795424918</v>
@@ -26065,7 +25915,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.767744367917235</v>
+        <v>1.732979431800983</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.406391013373792</v>
@@ -26154,7 +26004,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.759157472853841</v>
+        <v>1.725558664818943</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.591404320430264</v>
@@ -26243,7 +26093,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.755409085194049</v>
+        <v>1.731734804860432</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.349770972006012</v>
@@ -26332,7 +26182,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.754155699963605</v>
+        <v>1.731324635189432</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.621479284461631</v>
@@ -26421,7 +26271,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.754513733961919</v>
+        <v>1.732950696925646</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.404892975942193</v>
@@ -26510,7 +26360,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.779171203347295</v>
+        <v>1.749525974834158</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.579973353150973</v>
@@ -26599,7 +26449,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.79217255604529</v>
+        <v>1.757610092051677</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.731411845323783</v>
@@ -26688,7 +26538,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.778681744632731</v>
+        <v>1.738548707103352</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.981283038178698</v>
@@ -26777,7 +26627,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.770088579074513</v>
+        <v>1.728515234765896</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.998607693476014</v>
@@ -26866,7 +26716,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.778179813315888</v>
+        <v>1.730947627733469</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.02551179218538</v>
@@ -27152,7 +27002,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.701706463476018</v>
+        <v>1.680305099653833</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.086952100560841</v>
@@ -27241,7 +27091,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.705813501383358</v>
+        <v>1.68469515174373</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.056506088337576</v>
@@ -27330,7 +27180,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.705159544545469</v>
+        <v>1.687230528903348</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.110506040493358</v>
@@ -27419,7 +27269,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.709712589806254</v>
+        <v>1.688691500684816</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.063703106145476</v>
@@ -27508,7 +27358,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.710310705587153</v>
+        <v>1.688769714704255</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.068758052547083</v>
@@ -27597,7 +27447,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.69798052875876</v>
+        <v>1.680944557966546</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.069248093205159</v>
@@ -27686,7 +27536,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.699187338256388</v>
+        <v>1.681264267711683</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.109314028166508</v>
@@ -27775,7 +27625,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.703878619289504</v>
+        <v>1.679306698085512</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.069671299019791</v>
@@ -27864,7 +27714,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.731330856178239</v>
+        <v>1.691192096091836</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.059759169071299</v>
@@ -27953,7 +27803,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.752684443063297</v>
+        <v>1.700456492071747</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.733426210238787</v>
@@ -28042,7 +27892,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.760543186395246</v>
+        <v>1.706026846727823</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.94115594933803</v>
@@ -28131,7 +27981,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.758066279637861</v>
+        <v>1.704773411290124</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.969173531698226</v>
@@ -28220,7 +28070,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.75283046707089</v>
+        <v>1.697373728910847</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.247049740874209</v>
@@ -28309,7 +28159,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.749858680728716</v>
+        <v>1.696629560347705</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.301983597455737</v>
@@ -28398,7 +28248,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.749365680144356</v>
+        <v>1.695377555037212</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.914030118087059</v>
@@ -28487,7 +28337,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.749666320253385</v>
+        <v>1.697368418558338</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.971758602454851</v>
@@ -28576,7 +28426,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.755057735293261</v>
+        <v>1.698986512859223</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.17688940447824</v>
@@ -28665,7 +28515,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.758260078223878</v>
+        <v>1.695366400175114</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.004254669268684</v>
@@ -28754,7 +28604,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.76866708339533</v>
+        <v>1.706471057627079</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.949159154956383</v>
@@ -28843,7 +28693,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.765333728048684</v>
+        <v>1.699623879615941</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.867926780113141</v>
@@ -28932,7 +28782,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.787647108297528</v>
+        <v>1.719259821539251</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.286258049792357</v>
@@ -29021,7 +28871,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.785859293052415</v>
+        <v>1.726229596806497</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.809726792208995</v>
@@ -29110,7 +28960,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.778609963515546</v>
+        <v>1.723515445325245</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.966955585030498</v>
@@ -29199,7 +29049,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.788819231334011</v>
+        <v>1.734464382904826</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.582643086844791</v>
@@ -29288,7 +29138,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.7694762022472</v>
+        <v>1.718297900002657</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.559619013514776</v>
@@ -29377,7 +29227,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.759998235904882</v>
+        <v>1.712005539315307</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.636485067567284</v>
@@ -29466,7 +29316,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.758158156728435</v>
+        <v>1.704506145914614</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.715084247056975</v>
@@ -29555,7 +29405,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.766407788562149</v>
+        <v>1.711289193652562</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.093049270407392</v>
@@ -29644,7 +29494,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.771026104492517</v>
+        <v>1.717195996912581</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.993153316832415</v>
@@ -29733,7 +29583,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.76220521588961</v>
+        <v>1.712756620033556</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.095780905897379</v>
@@ -29822,7 +29672,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.761078851597106</v>
+        <v>1.709357940081868</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.410016215584558</v>
@@ -29911,7 +29761,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.754412122086492</v>
+        <v>1.701060920254835</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.36311476982067</v>
@@ -30000,7 +29850,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.747728483892132</v>
+        <v>1.69599438926853</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.835602256392002</v>
@@ -30089,7 +29939,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.74770173756965</v>
+        <v>1.69808801842621</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.468669410527218</v>
@@ -30178,7 +30028,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.744121816038006</v>
+        <v>1.700062995072635</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.166100328802341</v>
@@ -30267,7 +30117,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.734215224943846</v>
+        <v>1.682787280166261</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.319670856676658</v>
@@ -30356,7 +30206,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.72947121134819</v>
+        <v>1.674313229713938</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.278706887000739</v>
@@ -30445,7 +30295,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.741674511886725</v>
+        <v>1.674646624271054</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.832160806308728</v>
@@ -30534,7 +30384,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.741119092939002</v>
+        <v>1.669798531896131</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.663946906523212</v>
@@ -30623,7 +30473,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.7478248408686</v>
+        <v>1.673663382801412</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.655824291254099</v>
@@ -30712,7 +30562,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.761307062256394</v>
+        <v>1.687808824539749</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.853349145313395</v>
@@ -30801,7 +30651,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.754369712702676</v>
+        <v>1.685413151088244</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.633925403484585</v>
@@ -30890,7 +30740,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.749003925440566</v>
+        <v>1.684393013865441</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.5837474734954</v>
@@ -30979,7 +30829,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.745257099361314</v>
+        <v>1.676408503297424</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.372172560016962</v>
@@ -31068,7 +30918,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.749929241545402</v>
+        <v>1.674052759071113</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.282229711969129</v>
@@ -31157,7 +31007,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.753002994014398</v>
+        <v>1.674052843535989</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.369756820836574</v>
@@ -31246,7 +31096,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.754149833991057</v>
+        <v>1.680794256726261</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.833545564789965</v>
@@ -31335,7 +31185,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.750642056682593</v>
+        <v>1.678457233024218</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.311150963793827</v>
@@ -31424,7 +31274,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.740367923841674</v>
+        <v>1.668646549316437</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.773866146765653</v>
@@ -31513,7 +31363,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.734158069025069</v>
+        <v>1.65380756534804</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.089609678421909</v>
@@ -31602,7 +31452,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.732297331072876</v>
+        <v>1.657655139932969</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.800646317171432</v>
@@ -31691,7 +31541,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.73742985061583</v>
+        <v>1.66581251367319</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.0055078313703</v>
@@ -31780,7 +31630,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.727478988746943</v>
+        <v>1.665541083116926</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.007022873299888</v>
@@ -31869,7 +31719,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.730555131004791</v>
+        <v>1.669750544181642</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.602432333421606</v>
@@ -31958,7 +31808,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.735148115507306</v>
+        <v>1.6811014917033</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.43594088972656</v>
@@ -32047,7 +31897,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.724594746601606</v>
+        <v>1.675105726168336</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.197043099058811</v>
@@ -32136,7 +31986,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.726411643031204</v>
+        <v>1.672661346305676</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.02308622039495</v>
@@ -32225,7 +32075,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.73159748626767</v>
+        <v>1.671100347271844</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.268141182865312</v>
@@ -32314,7 +32164,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.731542793885218</v>
+        <v>1.670917013348851</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.932851556931658</v>
@@ -32403,7 +32253,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.72361548840218</v>
+        <v>1.663165890805505</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.388697417184339</v>
@@ -32492,7 +32342,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.713840702088471</v>
+        <v>1.65634506514226</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.28035573950354</v>
@@ -32581,7 +32431,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.720892528942732</v>
+        <v>1.660064907655284</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.714985051909818</v>
@@ -32670,7 +32520,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.722828585577144</v>
+        <v>1.661347587823401</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.837878289411655</v>
@@ -32759,7 +32609,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.731546443937783</v>
+        <v>1.668339393116735</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.598530144377157</v>
@@ -32848,7 +32698,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.749680319689592</v>
+        <v>1.689416935458818</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.725342045253138</v>
@@ -32937,7 +32787,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.754142609497182</v>
+        <v>1.68004678757536</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.909001062455594</v>
@@ -33026,7 +32876,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.753653468981268</v>
+        <v>1.682211300251229</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.742206245108374</v>
@@ -33115,7 +32965,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.756782295399794</v>
+        <v>1.684978247802592</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.670585865385599</v>
@@ -33401,7 +33251,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.330499279157836</v>
+        <v>1.324884941698676</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.643154900473815</v>
@@ -33490,7 +33340,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.342971126926939</v>
+        <v>1.337259190973544</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.666400481906881</v>
@@ -33579,7 +33429,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.359157278795099</v>
+        <v>1.352132883290289</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.624282699028384</v>
@@ -33668,7 +33518,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.354982066393046</v>
+        <v>1.350566826774857</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.634550116959702</v>
@@ -33757,7 +33607,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.359464567959248</v>
+        <v>1.355210371520243</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.629362090306935</v>
@@ -33846,7 +33696,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.351945713146911</v>
+        <v>1.349310952697704</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.627845156046651</v>
@@ -33935,7 +33785,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.336869317376021</v>
+        <v>1.334940215445987</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.629766642060497</v>
@@ -34024,7 +33874,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.337923594377231</v>
+        <v>1.336874368205991</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.653720448841309</v>
@@ -34113,7 +33963,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.386829492031399</v>
+        <v>1.378376883917777</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.477421351030387</v>
@@ -34202,7 +34052,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.511771423516804</v>
+        <v>1.500359746324061</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.988372690750596</v>
@@ -34291,7 +34141,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.551240572106906</v>
+        <v>1.53962186267282</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.719244439126557</v>
@@ -34380,7 +34230,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.551748650074475</v>
+        <v>1.536988866946216</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.802857333110525</v>
@@ -34469,7 +34319,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.561402726330318</v>
+        <v>1.545140909611273</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.773513388709476</v>
@@ -34558,7 +34408,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.577954866791858</v>
+        <v>1.563981487904736</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.391170712914469</v>
@@ -34647,7 +34497,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.5761369661239</v>
+        <v>1.559807563482886</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.507209997946735</v>
@@ -34736,7 +34586,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.569011853767139</v>
+        <v>1.557571363130996</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.620554147005618</v>
@@ -34825,7 +34675,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.554528410016892</v>
+        <v>1.54042657823296</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.405919283184416</v>
@@ -34914,7 +34764,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.565859577122167</v>
+        <v>1.550728543945495</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.639812328371939</v>
@@ -35003,7 +34853,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.59052758426781</v>
+        <v>1.569779772006344</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.382235759210156</v>
@@ -35092,7 +34942,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.593643567018591</v>
+        <v>1.572414070794985</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.491635733331802</v>
@@ -35181,7 +35031,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.593578251505385</v>
+        <v>1.576410204984636</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.528091484162728</v>
@@ -35270,7 +35120,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.631471000070606</v>
+        <v>1.612178636092256</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.527410867430757</v>
@@ -35359,7 +35209,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.617378849533643</v>
+        <v>1.597337922963928</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.543625408577206</v>
@@ -35448,7 +35298,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.600682695819492</v>
+        <v>1.588435840623942</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.593968460051423</v>
@@ -35537,7 +35387,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.569199932935082</v>
+        <v>1.558659064506804</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.45646273590208</v>
@@ -35626,7 +35476,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.563907573612055</v>
+        <v>1.552916759913838</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.477812962338019</v>
@@ -35715,7 +35565,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.568651933086842</v>
+        <v>1.556938905459406</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.477279774230108</v>
@@ -35804,7 +35654,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.58187596263361</v>
+        <v>1.572505742733472</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.547872016314575</v>
@@ -35893,7 +35743,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.582080665803759</v>
+        <v>1.569265298440043</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.503376788689599</v>
@@ -35982,7 +35832,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.551080763976081</v>
+        <v>1.545818295557146</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.470389405616825</v>
@@ -36071,7 +35921,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.560253619912497</v>
+        <v>1.548448328769771</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.250532683423617</v>
@@ -36160,7 +36010,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.589667179166726</v>
+        <v>1.57778427564606</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.474999929237129</v>
@@ -36249,7 +36099,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.595435883845633</v>
+        <v>1.586295611130224</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.361741135789761</v>
@@ -36338,7 +36188,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.587171029486976</v>
+        <v>1.582967232091745</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.448173931666985</v>
@@ -36427,7 +36277,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.565846660158034</v>
+        <v>1.561601208845731</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.501815840949659</v>
@@ -36516,7 +36366,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.575851518891931</v>
+        <v>1.572279432985206</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.405099510328723</v>
@@ -36605,7 +36455,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.582051255947823</v>
+        <v>1.575843112733529</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.409322750502804</v>
@@ -36694,7 +36544,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.581288441147867</v>
+        <v>1.56997168447754</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.545406916987707</v>
@@ -36783,7 +36633,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.606114516087936</v>
+        <v>1.586388653557805</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.274636529703917</v>
@@ -36872,7 +36722,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.632242046930462</v>
+        <v>1.615246000972884</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.480026003934058</v>
@@ -36961,7 +36811,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.636768863622895</v>
+        <v>1.620460506283842</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.46880520900923</v>
@@ -37050,7 +36900,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.619836611706608</v>
+        <v>1.613249429085208</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.418180562407992</v>
@@ -37139,7 +36989,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.584420676735877</v>
+        <v>1.579817010994313</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.598712242945272</v>
@@ -37228,7 +37078,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.580216276855085</v>
+        <v>1.575735704611607</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.322621144623475</v>
@@ -37317,7 +37167,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.614386182817906</v>
+        <v>1.600920347957226</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.471609662003247</v>
@@ -37406,7 +37256,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.62006834028399</v>
+        <v>1.608613841657686</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.530357657660768</v>
@@ -37495,7 +37345,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.61872369426911</v>
+        <v>1.606416054190375</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.416244134896848</v>
@@ -37584,7 +37434,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.619448706617225</v>
+        <v>1.607299964154225</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.484445805645709</v>
@@ -37673,7 +37523,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.601369874563562</v>
+        <v>1.58611314681559</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.511664034776211</v>
@@ -37762,7 +37612,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.602363846236688</v>
+        <v>1.592989039937551</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.458309040301085</v>
@@ -37851,7 +37701,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.604669002910574</v>
+        <v>1.590437274188171</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.535419883007785</v>
@@ -37940,7 +37790,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.610076549375781</v>
+        <v>1.591204718445671</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.374546267008959</v>
@@ -38029,7 +37879,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.599237949629846</v>
+        <v>1.591555385433172</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.539371643272188</v>
@@ -38118,7 +37968,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.594609059404749</v>
+        <v>1.587749837739918</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.624708413413954</v>
@@ -38207,7 +38057,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.576774921760047</v>
+        <v>1.571229737198532</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.498885655265709</v>
@@ -38296,7 +38146,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.550412530907341</v>
+        <v>1.54657682758868</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.636981594455025</v>
@@ -38385,7 +38235,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.578694494720207</v>
+        <v>1.567405415696678</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.513291587549397</v>
@@ -38474,7 +38324,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.614548725449223</v>
+        <v>1.5960399530843</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.447126382237434</v>
@@ -38563,7 +38413,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.615792974433301</v>
+        <v>1.595253582133444</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.647748233702859</v>
@@ -38652,7 +38502,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.588042132879586</v>
+        <v>1.569786543798455</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.581968578372637</v>
@@ -38741,7 +38591,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.579235150349064</v>
+        <v>1.561450644443843</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.679632446818102</v>
@@ -38830,7 +38680,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.584257192254352</v>
+        <v>1.567772506948872</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.602608133296188</v>
@@ -38919,7 +38769,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.581497907779064</v>
+        <v>1.563615927488317</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.560328614595647</v>
@@ -39008,7 +38858,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.62157938675514</v>
+        <v>1.597003660427994</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.455902812642514</v>
@@ -39097,7 +38947,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.646326769683878</v>
+        <v>1.616169857876073</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.616006348869139</v>
@@ -39186,7 +39036,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.64333406100619</v>
+        <v>1.609414249667432</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.690940813344313</v>
@@ -39275,7 +39125,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.64263966146871</v>
+        <v>1.610428567128884</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.497651924210238</v>
@@ -39364,7 +39214,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.668528669985496</v>
+        <v>1.628949679830824</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.709767532232472</v>
@@ -39650,7 +39500,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.448040824356778</v>
+        <v>1.437374323298604</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.983303414815383</v>
@@ -39739,7 +39589,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.474206603252918</v>
+        <v>1.458750312226359</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.090568059181582</v>
@@ -39828,7 +39678,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.501655248143673</v>
+        <v>1.482004936308649</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.890861836424643</v>
@@ -39917,7 +39767,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.493488948065782</v>
+        <v>1.472378244339511</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.914117586803812</v>
@@ -40006,7 +39856,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.504378256968112</v>
+        <v>1.485136541698339</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.936366826151922</v>
@@ -40095,7 +39945,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.50480868273977</v>
+        <v>1.49119138682668</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.921456749477657</v>
@@ -40184,7 +40034,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.483134804091465</v>
+        <v>1.473359888068195</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.923545319396328</v>
@@ -40273,7 +40123,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.47391334767469</v>
+        <v>1.464384867525438</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.959484912444277</v>
@@ -40362,7 +40212,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.502501607268035</v>
+        <v>1.48741520749217</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.811112541187723</v>
@@ -40451,7 +40301,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.564505104330833</v>
+        <v>1.548923919367215</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.169562870396303</v>
@@ -40540,7 +40390,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.599168116810368</v>
+        <v>1.580038005622118</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.463599926640569</v>
@@ -40629,7 +40479,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.588774752133361</v>
+        <v>1.571274205941917</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.502126131702474</v>
@@ -40718,7 +40568,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.591241370708416</v>
+        <v>1.57370080444569</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.512757759553073</v>
@@ -40807,7 +40657,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.608652972692429</v>
+        <v>1.590622922154379</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.40019125050557</v>
@@ -40896,7 +40746,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.609630845775564</v>
+        <v>1.583159645687919</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.360175509138531</v>
@@ -40985,7 +40835,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.60307408607518</v>
+        <v>1.5794497784141</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.407223363223272</v>
@@ -41074,7 +40924,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.581714608157233</v>
+        <v>1.560152948039392</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.282741851945671</v>
@@ -41163,7 +41013,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.611977439164455</v>
+        <v>1.587871579307985</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.523753824746265</v>
@@ -41252,7 +41102,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.644225017321031</v>
+        <v>1.613988910731738</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.254397088437885</v>
@@ -41341,7 +41191,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.648517801471785</v>
+        <v>1.616790954637912</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.330337178247336</v>
@@ -41430,7 +41280,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.658238268723117</v>
+        <v>1.626869100291536</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.400135426626828</v>
@@ -41519,7 +41369,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.704489727788323</v>
+        <v>1.658957154588182</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.376436039427625</v>
@@ -41608,7 +41458,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.706309404128776</v>
+        <v>1.662000476913356</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.348793441508279</v>
@@ -41697,7 +41547,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.705854392975237</v>
+        <v>1.661723062476276</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.416199918695727</v>
@@ -41786,7 +41636,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.657613811748702</v>
+        <v>1.619221536071632</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.294404104900879</v>
@@ -41875,7 +41725,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.65993519741011</v>
+        <v>1.627001157523112</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.357328574841454</v>
@@ -41964,7 +41814,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.648417795260844</v>
+        <v>1.611075454669104</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.362404580873386</v>
@@ -42053,7 +41903,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.648997221272015</v>
+        <v>1.617876261177358</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.421027122780311</v>
@@ -42142,7 +41992,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.652163995554457</v>
+        <v>1.617967300240353</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.387732290307178</v>
@@ -42231,7 +42081,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.614989342319166</v>
+        <v>1.5886567664205</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.38936293015422</v>
@@ -42320,7 +42170,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.62508121427962</v>
+        <v>1.593167557724316</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.197942276796213</v>
@@ -42409,7 +42259,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.652536613744834</v>
+        <v>1.620382476206403</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.393121155578038</v>
@@ -42498,7 +42348,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.650927020842869</v>
+        <v>1.621001302749773</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.236205834598058</v>
@@ -42587,7 +42437,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.64623712560361</v>
+        <v>1.619108873017635</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.331637643716701</v>
@@ -42676,7 +42526,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.627110002501258</v>
+        <v>1.599880868594667</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.349543105839025</v>
@@ -42765,7 +42615,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.627879920604707</v>
+        <v>1.598040278442315</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.35775723205008</v>
@@ -42854,7 +42704,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.622774645129825</v>
+        <v>1.59054746533631</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.314993064589354</v>
@@ -42943,7 +42793,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.593675505565511</v>
+        <v>1.563061655517809</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.367172775279791</v>
@@ -43032,7 +42882,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.595960051804873</v>
+        <v>1.559981123950783</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.143499269846098</v>
@@ -43121,7 +42971,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.627822390055522</v>
+        <v>1.590569845617033</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.332018943584666</v>
@@ -43210,7 +43060,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.630352817648063</v>
+        <v>1.591153274896886</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.316514221072707</v>
@@ -43299,7 +43149,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.626979981318847</v>
+        <v>1.592494646622009</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.202844077869864</v>
@@ -43388,7 +43238,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.593489730196587</v>
+        <v>1.564093963817244</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.357445813558024</v>
@@ -43477,7 +43327,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.595860340661222</v>
+        <v>1.563289069036137</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.184306411036043</v>
@@ -43566,7 +43416,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.627136964357524</v>
+        <v>1.593093788349236</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.358074499788279</v>
@@ -43655,7 +43505,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.630988095323638</v>
+        <v>1.599465107187117</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.423577170701301</v>
@@ -43744,7 +43594,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.632458627970808</v>
+        <v>1.603297409559665</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.306262811832596</v>
@@ -43833,7 +43683,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.637171036668971</v>
+        <v>1.602455406527793</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.366174903448712</v>
@@ -43922,7 +43772,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.622924016310537</v>
+        <v>1.583440836957366</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.355556119951471</v>
@@ -44011,7 +43861,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.618739037520333</v>
+        <v>1.58678188203709</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.308710337572945</v>
@@ -44100,7 +43950,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.617992969230399</v>
+        <v>1.587676745386634</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.3775971508428</v>
@@ -44189,7 +44039,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.631009517180999</v>
+        <v>1.597391948020003</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.203895025046409</v>
@@ -44278,7 +44128,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.648445590525235</v>
+        <v>1.617066640218132</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.363547793366414</v>
@@ -44367,7 +44217,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.653828010678131</v>
+        <v>1.622532143403928</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.416848059587346</v>
@@ -44456,7 +44306,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.639304790406301</v>
+        <v>1.613109444403645</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.327220592142693</v>
@@ -44545,7 +44395,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.603487743298196</v>
+        <v>1.583597247569</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.469417298803519</v>
@@ -44634,7 +44484,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.630966291907676</v>
+        <v>1.604682190848534</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.356173739902273</v>
@@ -44723,7 +44573,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.670274942864737</v>
+        <v>1.633641036159407</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.350329328557097</v>
@@ -44812,7 +44662,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.623283077657936</v>
+        <v>1.602065547687862</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.541426211304286</v>
@@ -44901,7 +44751,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.602103365963202</v>
+        <v>1.586499467128841</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.549943721884756</v>
@@ -44990,7 +44840,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.592637319335893</v>
+        <v>1.5767411661381</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.572795334413726</v>
@@ -45079,7 +44929,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.596444695430001</v>
+        <v>1.580195238318259</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.536486920329989</v>
@@ -45168,7 +45018,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.592973674265421</v>
+        <v>1.578275566464268</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.458302376093339</v>
@@ -45257,7 +45107,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.623423691550214</v>
+        <v>1.602767112448498</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.340820396492009</v>
@@ -45346,7 +45196,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.635315505424367</v>
+        <v>1.609300662700424</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.552821103275686</v>
@@ -45435,7 +45285,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.627307409497757</v>
+        <v>1.598110095217813</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.516203106356655</v>
@@ -45524,7 +45374,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.62124121434541</v>
+        <v>1.595827713791259</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.492283441218843</v>
@@ -45613,7 +45463,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.622445467555406</v>
+        <v>1.596581527182004</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.594235281091122</v>
